--- a/raw_data/20200818_saline/20200818_Sensor1_Test_26.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_26.xlsx
@@ -1,1279 +1,1695 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319D7E1A-4BA1-4A17-825B-A776CB381282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>22687.662223</v>
+        <v>22687.662222999999</v>
       </c>
       <c r="B2" s="1">
-        <v>6.302128</v>
+        <v>6.3021279999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>898.262000</v>
+        <v>898.26199999999994</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.057000</v>
+        <v>-202.05699999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>22697.406862</v>
       </c>
       <c r="G2" s="1">
-        <v>6.304835</v>
+        <v>6.3048349999999997</v>
       </c>
       <c r="H2" s="1">
-        <v>916.535000</v>
+        <v>916.53499999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-170.684000</v>
+        <v>-170.684</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>22707.535665</v>
+        <v>22707.535664999999</v>
       </c>
       <c r="L2" s="1">
-        <v>6.307649</v>
+        <v>6.3076489999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>939.308000</v>
+        <v>939.30799999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.626000</v>
+        <v>-120.626</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>22718.059794</v>
+        <v>22718.059794000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.310572</v>
+        <v>6.3105719999999996</v>
       </c>
       <c r="R2" s="1">
-        <v>946.027000</v>
+        <v>946.02700000000004</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.157000</v>
+        <v>-104.157</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>22728.321507</v>
+        <v>22728.321507000001</v>
       </c>
       <c r="V2" s="1">
-        <v>6.313423</v>
+        <v>6.3134230000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>952.497000</v>
+        <v>952.49699999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.863400</v>
+        <v>-88.863399999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>22738.773207</v>
+        <v>22738.773206999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>6.316326</v>
+        <v>6.3163260000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>959.457000</v>
+        <v>959.45699999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.980300</v>
+        <v>-76.9803</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>22749.320137</v>
+        <v>22749.320136999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>6.319256</v>
+        <v>6.3192560000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.028000</v>
+        <v>964.02800000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.682200</v>
+        <v>-74.682199999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>22759.757484</v>
+        <v>22759.757484000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.322155</v>
+        <v>6.3221550000000004</v>
       </c>
       <c r="AL2" s="1">
-        <v>971.136000</v>
+        <v>971.13599999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.412400</v>
+        <v>-79.412400000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>22770.345581</v>
+        <v>22770.345581000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.325096</v>
+        <v>6.3250960000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>979.088000</v>
+        <v>979.08799999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.994300</v>
+        <v>-90.994299999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>22781.320296</v>
+        <v>22781.320296000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.328145</v>
+        <v>6.3281450000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>988.766000</v>
+        <v>988.76599999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.735000</v>
+        <v>-108.735</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>22792.787536</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.331330</v>
+        <v>6.3313300000000003</v>
       </c>
       <c r="BA2" s="1">
-        <v>996.943000</v>
+        <v>996.94299999999998</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.471000</v>
+        <v>-124.471</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>22803.849344</v>
+        <v>22803.849343999998</v>
       </c>
       <c r="BE2" s="1">
         <v>6.334403</v>
       </c>
       <c r="BF2" s="1">
-        <v>1035.270000</v>
+        <v>1035.27</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.121000</v>
+        <v>-197.12100000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>22814.873889</v>
+        <v>22814.873888999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.337465</v>
+        <v>6.3374649999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1102.190000</v>
+        <v>1102.19</v>
       </c>
       <c r="BL2" s="1">
-        <v>-315.113000</v>
+        <v>-315.113</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>22826.025443</v>
+        <v>22826.025442999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.340563</v>
+        <v>6.3405630000000004</v>
       </c>
       <c r="BP2" s="1">
-        <v>1211.370000</v>
+        <v>1211.3699999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-500.556000</v>
+        <v>-500.55599999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>22837.895204</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.343860</v>
+        <v>6.3438600000000003</v>
       </c>
       <c r="BU2" s="1">
-        <v>1334.390000</v>
+        <v>1334.39</v>
       </c>
       <c r="BV2" s="1">
-        <v>-703.498000</v>
+        <v>-703.49800000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>22848.600886</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.346834</v>
+        <v>6.3468340000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="CA2" s="1">
-        <v>-919.843000</v>
+        <v>-919.84299999999996</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>22859.279222</v>
+        <v>22859.279222000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.349800</v>
+        <v>6.3498000000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1829.890000</v>
+        <v>1829.89</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1433.830000</v>
+        <v>-1433.83</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>22688.049338</v>
+        <v>22688.049338000001</v>
       </c>
       <c r="B3" s="1">
-        <v>6.302236</v>
+        <v>6.3022359999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>898.294000</v>
+        <v>898.29399999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.065000</v>
+        <v>-202.065</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>22697.820555</v>
+        <v>22697.820554999998</v>
       </c>
       <c r="G3" s="1">
-        <v>6.304950</v>
+        <v>6.3049499999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>916.565000</v>
+        <v>916.56500000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-170.762000</v>
+        <v>-170.762</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>22707.949327</v>
+        <v>22707.949326999998</v>
       </c>
       <c r="L3" s="1">
-        <v>6.307764</v>
+        <v>6.3077639999999997</v>
       </c>
       <c r="M3" s="1">
-        <v>939.613000</v>
+        <v>939.61300000000006</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.815000</v>
+        <v>-120.815</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>22718.164471</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.310601</v>
+        <v>6.3106010000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>946.023000</v>
+        <v>946.02300000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.132000</v>
+        <v>-104.13200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>22728.717315</v>
+        <v>22728.717315000002</v>
       </c>
       <c r="V3" s="1">
-        <v>6.313533</v>
+        <v>6.3135329999999996</v>
       </c>
       <c r="W3" s="1">
-        <v>952.429000</v>
+        <v>952.42899999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.833100</v>
+        <v>-88.833100000000002</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>22739.138789</v>
+        <v>22739.138789000001</v>
       </c>
       <c r="AA3" s="1">
         <v>6.316427</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.407000</v>
+        <v>959.40700000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.994500</v>
+        <v>-76.994500000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>22749.695113</v>
+        <v>22749.695113000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.319360</v>
+        <v>6.3193599999999996</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.103000</v>
+        <v>964.10299999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.772700</v>
+        <v>-74.7727</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>22760.145818</v>
+        <v>22760.145818000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.322263</v>
+        <v>6.3222630000000004</v>
       </c>
       <c r="AL3" s="1">
-        <v>971.110000</v>
+        <v>971.11</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.400600</v>
+        <v>-79.400599999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>22771.086075</v>
+        <v>22771.086074999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.325302</v>
+        <v>6.3253019999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>979.080000</v>
+        <v>979.08</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.975600</v>
+        <v>-90.9756</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>22782.079900</v>
+        <v>22782.079900000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>6.328356</v>
+        <v>6.3283560000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>988.802000</v>
+        <v>988.80200000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.741000</v>
+        <v>-108.741</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>22793.194785</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.331443</v>
+        <v>6.3314430000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>996.960000</v>
+        <v>996.96</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.452000</v>
+        <v>-124.452</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>22804.206972</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.334502</v>
+        <v>6.3345019999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.116000</v>
+        <v>-197.11600000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>22815.278625</v>
+        <v>22815.278624999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.337577</v>
+        <v>6.3375769999999996</v>
       </c>
       <c r="BK3" s="1">
-        <v>1102.160000</v>
+        <v>1102.1600000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-315.119000</v>
+        <v>-315.11900000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>22826.755553</v>
+        <v>22826.755552999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.340765</v>
+        <v>6.3407650000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1211.370000</v>
+        <v>1211.3699999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-500.549000</v>
+        <v>-500.54899999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>22838.055410</v>
+        <v>22838.055410000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.343904</v>
+        <v>6.3439040000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1334.430000</v>
+        <v>1334.43</v>
       </c>
       <c r="BV3" s="1">
-        <v>-703.647000</v>
+        <v>-703.64700000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>22848.790821</v>
+        <v>22848.790820999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.346886</v>
+        <v>6.3468859999999996</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1471.330000</v>
+        <v>1471.33</v>
       </c>
       <c r="CA3" s="1">
-        <v>-919.739000</v>
+        <v>-919.73900000000003</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>22859.843697</v>
       </c>
       <c r="CD3" s="1">
-        <v>6.349957</v>
+        <v>6.3499569999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1829.720000</v>
+        <v>1829.72</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1433.470000</v>
+        <v>-1433.47</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>22688.483336</v>
+        <v>22688.483336000001</v>
       </c>
       <c r="B4" s="1">
-        <v>6.302356</v>
+        <v>6.3023559999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>898.285000</v>
+        <v>898.28499999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.082000</v>
+        <v>-202.08199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>22698.132509</v>
+        <v>22698.132508999999</v>
       </c>
       <c r="G4" s="1">
-        <v>6.305037</v>
+        <v>6.3050369999999996</v>
       </c>
       <c r="H4" s="1">
-        <v>916.188000</v>
+        <v>916.18799999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.167000</v>
+        <v>-171.167</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>22708.298538</v>
+        <v>22708.298537999999</v>
       </c>
       <c r="L4" s="1">
-        <v>6.307861</v>
+        <v>6.3078609999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>939.255000</v>
+        <v>939.255</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.750000</v>
+        <v>-120.75</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>22718.507666</v>
+        <v>22718.507666000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.310697</v>
+        <v>6.3106970000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>946.038000</v>
+        <v>946.03800000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.138000</v>
+        <v>-104.13800000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>22729.059555</v>
       </c>
       <c r="V4" s="1">
-        <v>6.313628</v>
+        <v>6.3136279999999996</v>
       </c>
       <c r="W4" s="1">
-        <v>952.414000</v>
+        <v>952.41399999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.818600</v>
+        <v>-88.818600000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>22739.489460</v>
+        <v>22739.489460000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.316525</v>
+        <v>6.3165250000000004</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.384000</v>
+        <v>959.38400000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.957600</v>
+        <v>-76.957599999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>22750.378600</v>
+        <v>22750.3786</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.319550</v>
+        <v>6.3195499999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.064000</v>
+        <v>964.06399999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.703900</v>
+        <v>-74.703900000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>22760.842728</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.322456</v>
+        <v>6.3224559999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>971.118000</v>
+        <v>971.11800000000005</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.400200</v>
+        <v>-79.400199999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>22771.445675</v>
+        <v>22771.445674999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.325402</v>
+        <v>6.3254020000000004</v>
       </c>
       <c r="AQ4" s="1">
-        <v>979.056000</v>
+        <v>979.05600000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.984500</v>
+        <v>-90.984499999999997</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>22782.444962</v>
+        <v>22782.444962000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.328457</v>
+        <v>6.3284570000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>988.786000</v>
+        <v>988.78599999999994</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.746000</v>
+        <v>-108.746</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>22793.551373</v>
+        <v>22793.551372999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.331542</v>
+        <v>6.3315419999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>996.947000</v>
+        <v>996.947</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.466000</v>
+        <v>-124.46599999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>22804.880990</v>
+        <v>22804.880990000001</v>
       </c>
       <c r="BE4" s="1">
         <v>6.334689</v>
       </c>
       <c r="BF4" s="1">
-        <v>1035.270000</v>
+        <v>1035.27</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.126000</v>
+        <v>-197.126</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>22815.964128</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.337768</v>
+        <v>6.3377679999999996</v>
       </c>
       <c r="BK4" s="1">
-        <v>1102.160000</v>
+        <v>1102.1600000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-315.137000</v>
+        <v>-315.137</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>22826.872113</v>
+        <v>22826.872113000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>6.340798</v>
+        <v>6.3407980000000004</v>
       </c>
       <c r="BP4" s="1">
-        <v>1211.380000</v>
+        <v>1211.3800000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-500.590000</v>
+        <v>-500.59</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>22838.467123</v>
+        <v>22838.467122999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.344019</v>
+        <v>6.3440190000000003</v>
       </c>
       <c r="BU4" s="1">
-        <v>1334.440000</v>
+        <v>1334.44</v>
       </c>
       <c r="BV4" s="1">
-        <v>-703.786000</v>
+        <v>-703.78599999999994</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>22849.210933</v>
+        <v>22849.210932999998</v>
       </c>
       <c r="BY4" s="1">
         <v>6.347003</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1471.260000</v>
+        <v>1471.26</v>
       </c>
       <c r="CA4" s="1">
-        <v>-919.835000</v>
+        <v>-919.83500000000004</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>22860.362485</v>
+        <v>22860.362485000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.350101</v>
+        <v>6.3501010000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>1830.810000</v>
+        <v>1830.81</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1434.360000</v>
+        <v>-1434.36</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>22688.763080</v>
+        <v>22688.763080000001</v>
       </c>
       <c r="B5" s="1">
-        <v>6.302434</v>
+        <v>6.3024339999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>898.179000</v>
+        <v>898.17899999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.094000</v>
+        <v>-202.09399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>22698.475773</v>
+        <v>22698.475772999998</v>
       </c>
       <c r="G5" s="1">
-        <v>6.305132</v>
+        <v>6.3051320000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>915.756000</v>
+        <v>915.75599999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-170.767000</v>
+        <v>-170.767</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>22708.645213</v>
@@ -1282,647 +1698,647 @@
         <v>6.307957</v>
       </c>
       <c r="M5" s="1">
-        <v>939.555000</v>
+        <v>939.55499999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.729000</v>
+        <v>-120.729</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>22718.846928</v>
+        <v>22718.846927999999</v>
       </c>
       <c r="Q5" s="1">
         <v>6.310791</v>
       </c>
       <c r="R5" s="1">
-        <v>946.084000</v>
+        <v>946.08399999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.170000</v>
+        <v>-104.17</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>22729.404306</v>
       </c>
       <c r="V5" s="1">
-        <v>6.313723</v>
+        <v>6.3137230000000004</v>
       </c>
       <c r="W5" s="1">
-        <v>952.410000</v>
+        <v>952.41</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.819200</v>
+        <v>-88.819199999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>22740.186340</v>
+        <v>22740.18634</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.316718</v>
+        <v>6.3167179999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.616000</v>
+        <v>959.61599999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.903700</v>
+        <v>-76.903700000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>22750.723188</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.319645</v>
+        <v>6.3196450000000004</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.078000</v>
+        <v>964.07799999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.751100</v>
+        <v>-74.751099999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>22761.190392</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.322553</v>
+        <v>6.3225530000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>971.133000</v>
+        <v>971.13300000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.411400</v>
+        <v>-79.4114</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>22771.805274</v>
+        <v>22771.805273999998</v>
       </c>
       <c r="AP5" s="1">
         <v>6.325501</v>
       </c>
       <c r="AQ5" s="1">
-        <v>979.072000</v>
+        <v>979.072</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.973400</v>
+        <v>-90.973399999999998</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>22783.116539</v>
+        <v>22783.116538999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.328643</v>
+        <v>6.3286429999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>988.773000</v>
+        <v>988.77300000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.731000</v>
+        <v>-108.73099999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>22794.214556</v>
+        <v>22794.214555999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.331726</v>
+        <v>6.3317259999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>996.952000</v>
+        <v>996.952</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.428000</v>
+        <v>-124.428</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>22805.324910</v>
+        <v>22805.324909999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.334812</v>
+        <v>6.3348120000000003</v>
       </c>
       <c r="BF5" s="1">
-        <v>1035.300000</v>
+        <v>1035.3</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.139000</v>
+        <v>-197.13900000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>22816.615871</v>
+        <v>22816.615871000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>6.337949</v>
+        <v>6.3379490000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1102.170000</v>
+        <v>1102.17</v>
       </c>
       <c r="BL5" s="1">
-        <v>-315.134000</v>
+        <v>-315.13400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>22827.267922</v>
+        <v>22827.267921999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.340908</v>
+        <v>6.3409079999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1211.390000</v>
+        <v>1211.3900000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-500.594000</v>
+        <v>-500.59399999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>22838.898645</v>
+        <v>22838.898645000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.344139</v>
+        <v>6.3441390000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1334.270000</v>
+        <v>1334.27</v>
       </c>
       <c r="BV5" s="1">
-        <v>-703.879000</v>
+        <v>-703.87900000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>22849.638980</v>
+        <v>22849.63898</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.347122</v>
+        <v>6.3471219999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="CA5" s="1">
-        <v>-919.826000</v>
+        <v>-919.82600000000002</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>22860.881796</v>
+        <v>22860.881796000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.350245</v>
+        <v>6.3502450000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1831.750000</v>
+        <v>1831.75</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1433.450000</v>
+        <v>-1433.45</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>22689.102343</v>
+        <v>22689.102342999999</v>
       </c>
       <c r="B6" s="1">
-        <v>6.302528</v>
+        <v>6.3025279999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>898.270000</v>
+        <v>898.27</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.116000</v>
+        <v>-202.11600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>22698.819963</v>
+        <v>22698.819963000002</v>
       </c>
       <c r="G6" s="1">
-        <v>6.305228</v>
+        <v>6.3052279999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>915.951000</v>
+        <v>915.95100000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-170.593000</v>
+        <v>-170.59299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>22708.989437</v>
       </c>
       <c r="L6" s="1">
-        <v>6.308053</v>
+        <v>6.3080530000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>939.635000</v>
+        <v>939.63499999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.584000</v>
+        <v>-120.584</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>22719.553231</v>
+        <v>22719.553231000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>6.310987</v>
+        <v>6.3109869999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>946.062000</v>
+        <v>946.06200000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.185000</v>
+        <v>-104.185</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>22730.119047</v>
       </c>
       <c r="V6" s="1">
-        <v>6.313922</v>
+        <v>6.3139219999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>952.433000</v>
+        <v>952.43299999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.852800</v>
+        <v>-88.852800000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>22740.534995</v>
+        <v>22740.534995000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.316815</v>
+        <v>6.3168150000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>959.463000</v>
+        <v>959.46299999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.002800</v>
+        <v>-77.002799999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>22751.071536</v>
+        <v>22751.071535999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.319742</v>
+        <v>6.3197419999999997</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.027000</v>
+        <v>964.02700000000004</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.735200</v>
+        <v>-74.735200000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>22761.538583</v>
+        <v>22761.538583000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>6.322650</v>
+        <v>6.3226500000000003</v>
       </c>
       <c r="AL6" s="1">
-        <v>971.123000</v>
+        <v>971.12300000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.404200</v>
+        <v>-79.404200000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>22772.461978</v>
+        <v>22772.461977999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.325684</v>
+        <v>6.3256839999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>979.082000</v>
+        <v>979.08199999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.994900</v>
+        <v>-90.994900000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>22783.566412</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.328768</v>
+        <v>6.3287680000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>988.798000</v>
+        <v>988.798</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.747000</v>
+        <v>-108.747</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>22794.630173</v>
+        <v>22794.630173000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>6.331842</v>
       </c>
       <c r="BA6" s="1">
-        <v>996.920000</v>
+        <v>996.92</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.448000</v>
+        <v>-124.44799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>22805.684790</v>
+        <v>22805.684789999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.334912</v>
+        <v>6.3349120000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.142000</v>
+        <v>-197.142</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>22816.817305</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.338005</v>
+        <v>6.3380049999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1102.160000</v>
+        <v>1102.1600000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-315.124000</v>
+        <v>-315.12400000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>22827.690016</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.341025</v>
+        <v>6.3410250000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1211.370000</v>
+        <v>1211.3699999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-500.585000</v>
+        <v>-500.58499999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>22839.327681</v>
+        <v>22839.327680999999</v>
       </c>
       <c r="BT6" s="1">
         <v>6.344258</v>
       </c>
       <c r="BU6" s="1">
-        <v>1334.110000</v>
+        <v>1334.11</v>
       </c>
       <c r="BV6" s="1">
-        <v>-703.959000</v>
+        <v>-703.95899999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>22850.086371</v>
+        <v>22850.086371000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.347246</v>
+        <v>6.3472460000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1471.210000</v>
+        <v>1471.21</v>
       </c>
       <c r="CA6" s="1">
-        <v>-919.904000</v>
+        <v>-919.904</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>22861.398660</v>
+        <v>22861.398659999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.350389</v>
+        <v>6.3503889999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1830.730000</v>
+        <v>1830.73</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1432.490000</v>
+        <v>-1432.49</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>22689.446073</v>
+        <v>22689.446072999999</v>
       </c>
       <c r="B7" s="1">
-        <v>6.302624</v>
+        <v>6.3026239999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>898.180000</v>
+        <v>898.18</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.135000</v>
+        <v>-202.13499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>22699.509936</v>
+        <v>22699.509935999999</v>
       </c>
       <c r="G7" s="1">
-        <v>6.305419</v>
+        <v>6.3054189999999997</v>
       </c>
       <c r="H7" s="1">
-        <v>915.956000</v>
+        <v>915.95600000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-170.810000</v>
+        <v>-170.81</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>22709.679868</v>
+        <v>22709.679867999999</v>
       </c>
       <c r="L7" s="1">
-        <v>6.308244</v>
+        <v>6.3082440000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>939.396000</v>
+        <v>939.39599999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.762000</v>
+        <v>-120.762</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>22719.904430</v>
+        <v>22719.904429999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.311085</v>
+        <v>6.3110850000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>946.035000</v>
+        <v>946.03499999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.178000</v>
+        <v>-104.178</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>22730.435953</v>
       </c>
       <c r="V7" s="1">
-        <v>6.314010</v>
+        <v>6.3140099999999997</v>
       </c>
       <c r="W7" s="1">
-        <v>952.495000</v>
+        <v>952.495</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.857400</v>
+        <v>-88.857399999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>22740.880739</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.316911</v>
+        <v>6.3169110000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.505000</v>
+        <v>959.505</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.940000</v>
+        <v>-76.94</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>22751.728213</v>
+        <v>22751.728212999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.319925</v>
+        <v>6.3199249999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.077000</v>
+        <v>964.077</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.742000</v>
+        <v>-74.742000000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>22762.188839</v>
+        <v>22762.188838999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.322830</v>
+        <v>6.3228299999999997</v>
       </c>
       <c r="AL7" s="1">
-        <v>971.135000</v>
+        <v>971.13499999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.421000</v>
+        <v>-79.421000000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>22772.888041</v>
+        <v>22772.888040999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.325802</v>
+        <v>6.3258020000000004</v>
       </c>
       <c r="AQ7" s="1">
-        <v>979.086000</v>
+        <v>979.08600000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.988000</v>
+        <v>-90.988</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>22783.928490</v>
+        <v>22783.928489999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.328869</v>
+        <v>6.3288690000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>988.791000</v>
+        <v>988.79100000000005</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.748000</v>
+        <v>-108.748</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>22795.014571</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.331948</v>
+        <v>6.3319479999999997</v>
       </c>
       <c r="BA7" s="1">
-        <v>996.953000</v>
+        <v>996.95299999999997</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.461000</v>
+        <v>-124.461</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>22806.046124</v>
@@ -1931,1555 +2347,1555 @@
         <v>6.335013</v>
       </c>
       <c r="BF7" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.118000</v>
+        <v>-197.11799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>22817.420847</v>
+        <v>22817.420847000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.338172</v>
+        <v>6.3381720000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1102.160000</v>
+        <v>1102.1600000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-315.132000</v>
+        <v>-315.13200000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>22828.102688</v>
+        <v>22828.102687999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.341140</v>
+        <v>6.3411400000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1211.380000</v>
+        <v>1211.3800000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-500.580000</v>
+        <v>-500.58</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>22839.740835</v>
+        <v>22839.740835000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.344372</v>
+        <v>6.3443719999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1333.930000</v>
+        <v>1333.93</v>
       </c>
       <c r="BV7" s="1">
-        <v>-703.965000</v>
+        <v>-703.96500000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>22850.516402</v>
+        <v>22850.516402000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.347366</v>
+        <v>6.3473660000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1471.260000</v>
+        <v>1471.26</v>
       </c>
       <c r="CA7" s="1">
-        <v>-919.844000</v>
+        <v>-919.84400000000005</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>22861.918467</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.350533</v>
+        <v>6.3505330000000004</v>
       </c>
       <c r="CE7" s="1">
-        <v>1831.040000</v>
+        <v>1831.04</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1432.600000</v>
+        <v>-1432.6</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>22690.130550</v>
+        <v>22690.130550000002</v>
       </c>
       <c r="B8" s="1">
-        <v>6.302814</v>
+        <v>6.3028139999999997</v>
       </c>
       <c r="C8" s="1">
-        <v>898.147000</v>
+        <v>898.14700000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.178000</v>
+        <v>-202.178</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>22699.852664</v>
+        <v>22699.852663999998</v>
       </c>
       <c r="G8" s="1">
-        <v>6.305515</v>
+        <v>6.3055149999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>916.384000</v>
+        <v>916.38400000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-170.817000</v>
+        <v>-170.81700000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>22710.017148</v>
+        <v>22710.017147999999</v>
       </c>
       <c r="L8" s="1">
         <v>6.308338</v>
       </c>
       <c r="M8" s="1">
-        <v>939.279000</v>
+        <v>939.279</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.588000</v>
+        <v>-120.58799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>22720.252094</v>
+        <v>22720.252093999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.311181</v>
+        <v>6.3111810000000004</v>
       </c>
       <c r="R8" s="1">
-        <v>946.019000</v>
+        <v>946.01900000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.158000</v>
+        <v>-104.158</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>22731.082273</v>
       </c>
       <c r="V8" s="1">
-        <v>6.314190</v>
+        <v>6.31419</v>
       </c>
       <c r="W8" s="1">
-        <v>952.472000</v>
+        <v>952.47199999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.861200</v>
+        <v>-88.861199999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>22741.544882</v>
+        <v>22741.544881999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.317096</v>
+        <v>6.3170960000000003</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.424000</v>
+        <v>959.42399999999998</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.050500</v>
+        <v>-77.0505</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>22752.101204</v>
+        <v>22752.101203999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.320028</v>
+        <v>6.3200279999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.085000</v>
+        <v>964.08500000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.728500</v>
+        <v>-74.728499999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>22762.585175</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.322940</v>
+        <v>6.32294</v>
       </c>
       <c r="AL8" s="1">
-        <v>971.120000</v>
+        <v>971.12</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.403100</v>
+        <v>-79.403099999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>22773.269497</v>
+        <v>22773.269497000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.325908</v>
+        <v>6.3259080000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>979.093000</v>
+        <v>979.09299999999996</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.996400</v>
+        <v>-90.996399999999994</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>22784.297018</v>
+        <v>22784.297018000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.328971</v>
+        <v>6.3289710000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>988.779000</v>
+        <v>988.779</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.746000</v>
+        <v>-108.746</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>22795.372684</v>
+        <v>22795.372684000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.332048</v>
+        <v>6.3320480000000003</v>
       </c>
       <c r="BA8" s="1">
-        <v>996.918000</v>
+        <v>996.91800000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.467000</v>
+        <v>-124.467</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>22806.452348</v>
+        <v>22806.452347999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.335126</v>
+        <v>6.3351259999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1035.300000</v>
+        <v>1035.3</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.134000</v>
+        <v>-197.13399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>22817.562702</v>
+        <v>22817.562701999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6.338212</v>
+        <v>6.3382120000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1102.150000</v>
+        <v>1102.1500000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-315.139000</v>
+        <v>-315.13900000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>22828.508448</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.341252</v>
+        <v>6.3412519999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-500.590000</v>
+        <v>-500.59</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>22840.169392</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.344491</v>
+        <v>6.3444909999999997</v>
       </c>
       <c r="BU8" s="1">
-        <v>1333.850000</v>
+        <v>1333.85</v>
       </c>
       <c r="BV8" s="1">
-        <v>-703.856000</v>
+        <v>-703.85599999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>22850.936546</v>
+        <v>22850.936546000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.347482</v>
+        <v>6.3474820000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1471.300000</v>
+        <v>1471.3</v>
       </c>
       <c r="CA8" s="1">
-        <v>-919.817000</v>
+        <v>-919.81700000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>22862.471475</v>
+        <v>22862.471474999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.350687</v>
+        <v>6.3506869999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>1831.650000</v>
+        <v>1831.65</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1433.960000</v>
+        <v>-1433.96</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>22690.471799</v>
+        <v>22690.471798999999</v>
       </c>
       <c r="B9" s="1">
-        <v>6.302909</v>
+        <v>6.3029089999999997</v>
       </c>
       <c r="C9" s="1">
-        <v>898.387000</v>
+        <v>898.38699999999994</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.269000</v>
+        <v>-202.26900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>22700.199368</v>
+        <v>22700.199368000001</v>
       </c>
       <c r="G9" s="1">
-        <v>6.305611</v>
+        <v>6.3056109999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>916.285000</v>
+        <v>916.28499999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.888000</v>
+        <v>-170.88800000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>22710.362363</v>
       </c>
       <c r="L9" s="1">
-        <v>6.308434</v>
+        <v>6.3084340000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>939.372000</v>
+        <v>939.37199999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.469000</v>
+        <v>-120.46899999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>22720.904335</v>
+        <v>22720.904334999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.311362</v>
+        <v>6.3113619999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>946.050000</v>
+        <v>946.05</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.121000</v>
+        <v>-104.121</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>22731.466176</v>
+        <v>22731.466176000002</v>
       </c>
       <c r="V9" s="1">
-        <v>6.314296</v>
+        <v>6.3142959999999997</v>
       </c>
       <c r="W9" s="1">
-        <v>952.498000</v>
+        <v>952.49800000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.818800</v>
+        <v>-88.818799999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>22741.929249</v>
+        <v>22741.929249000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.317203</v>
+        <v>6.3172030000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.456000</v>
+        <v>959.45600000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.001200</v>
+        <v>-77.001199999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>22752.444467</v>
+        <v>22752.444467000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.320123</v>
+        <v>6.3201229999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.051000</v>
+        <v>964.05100000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.740800</v>
+        <v>-74.740799999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>22762.930854</v>
+        <v>22762.930853999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.323036</v>
+        <v>6.3230360000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>971.105000</v>
+        <v>971.10500000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.413100</v>
+        <v>-79.4131</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>22773.628568</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.326008</v>
+        <v>6.3260079999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>979.098000</v>
+        <v>979.09799999999996</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.002000</v>
+        <v>-91.001999999999995</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>22784.711705</v>
+        <v>22784.711705000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.329087</v>
+        <v>6.3290870000000004</v>
       </c>
       <c r="AV9" s="1">
-        <v>988.769000</v>
+        <v>988.76900000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.740000</v>
+        <v>-108.74</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>22795.789324</v>
+        <v>22795.789324000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.332164</v>
+        <v>6.3321639999999997</v>
       </c>
       <c r="BA9" s="1">
-        <v>996.933000</v>
+        <v>996.93299999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.467000</v>
+        <v>-124.467</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>22806.767772</v>
+        <v>22806.767771999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.335213</v>
+        <v>6.3352130000000004</v>
       </c>
       <c r="BF9" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.128000</v>
+        <v>-197.12799999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>22817.936685</v>
+        <v>22817.936685000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.338316</v>
+        <v>6.3383159999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1102.170000</v>
+        <v>1102.17</v>
       </c>
       <c r="BL9" s="1">
-        <v>-315.136000</v>
+        <v>-315.13600000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>22828.908223</v>
+        <v>22828.908222999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.341363</v>
+        <v>6.3413630000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-500.598000</v>
+        <v>-500.59800000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>22840.596911</v>
+        <v>22840.596911000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.344610</v>
+        <v>6.3446100000000003</v>
       </c>
       <c r="BU9" s="1">
-        <v>1333.810000</v>
+        <v>1333.81</v>
       </c>
       <c r="BV9" s="1">
-        <v>-703.700000</v>
+        <v>-703.7</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>22851.359601</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.347600</v>
+        <v>6.3475999999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1471.220000</v>
+        <v>1471.22</v>
       </c>
       <c r="CA9" s="1">
-        <v>-919.931000</v>
+        <v>-919.93100000000004</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>22862.999218</v>
+        <v>22862.999218000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.350833</v>
+        <v>6.3508329999999997</v>
       </c>
       <c r="CE9" s="1">
-        <v>1831.180000</v>
+        <v>1831.18</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1432.620000</v>
+        <v>-1432.62</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>22690.812586</v>
       </c>
       <c r="B10" s="1">
-        <v>6.303003</v>
+        <v>6.3030030000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>898.184000</v>
+        <v>898.18399999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.284000</v>
+        <v>-202.28399999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>22700.851113</v>
+        <v>22700.851113000001</v>
       </c>
       <c r="G10" s="1">
-        <v>6.305792</v>
+        <v>6.3057920000000003</v>
       </c>
       <c r="H10" s="1">
-        <v>915.888000</v>
+        <v>915.88800000000003</v>
       </c>
       <c r="I10" s="1">
-        <v>-170.979000</v>
+        <v>-170.97900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>22711.035435</v>
+        <v>22711.035435000002</v>
       </c>
       <c r="L10" s="1">
-        <v>6.308621</v>
+        <v>6.3086209999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>939.563000</v>
+        <v>939.56299999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.559000</v>
+        <v>-120.559</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>22721.298653</v>
+        <v>22721.298653000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.311472</v>
+        <v>6.3114720000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>946.076000</v>
+        <v>946.07600000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.148000</v>
+        <v>-104.148</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>22731.808093</v>
       </c>
       <c r="V10" s="1">
-        <v>6.314391</v>
+        <v>6.3143909999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>952.428000</v>
+        <v>952.428</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.869700</v>
+        <v>-88.869699999999995</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>22742.274995</v>
       </c>
       <c r="AA10" s="1">
-        <v>6.317299</v>
+        <v>6.3172990000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>959.477000</v>
+        <v>959.47699999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.002800</v>
+        <v>-77.002799999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>22752.789655</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.320219</v>
+        <v>6.3202189999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.069000</v>
+        <v>964.06899999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.710000</v>
+        <v>-74.709999999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>22763.284997</v>
+        <v>22763.284996999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.323135</v>
+        <v>6.3231349999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>971.119000</v>
+        <v>971.11900000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.386800</v>
+        <v>-79.386799999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>22774.038263</v>
+        <v>22774.038262999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.326122</v>
+        <v>6.3261219999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>979.081000</v>
+        <v>979.08100000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.982700</v>
+        <v>-90.982699999999994</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>22785.023192</v>
+        <v>22785.023192000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.329173</v>
+        <v>6.3291729999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>988.758000</v>
+        <v>988.75800000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.732000</v>
+        <v>-108.732</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>22796.091914</v>
+        <v>22796.091914000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.332248</v>
+        <v>6.3322479999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>996.933000</v>
+        <v>996.93299999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.459000</v>
+        <v>-124.459</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>22807.130843</v>
+        <v>22807.130842999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>6.335314</v>
+        <v>6.3353140000000003</v>
       </c>
       <c r="BF10" s="1">
-        <v>1035.310000</v>
+        <v>1035.31</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.124000</v>
+        <v>-197.124</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>22818.313148</v>
+        <v>22818.313148000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.338420</v>
+        <v>6.3384200000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1102.160000</v>
+        <v>1102.1600000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-315.114000</v>
+        <v>-315.11399999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>22829.331774</v>
+        <v>22829.331773999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.341481</v>
+        <v>6.3414809999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1211.370000</v>
+        <v>1211.3699999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-500.600000</v>
+        <v>-500.6</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>22841.017023</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.344727</v>
+        <v>6.3447269999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1333.820000</v>
+        <v>1333.82</v>
       </c>
       <c r="BV10" s="1">
-        <v>-703.531000</v>
+        <v>-703.53099999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>22851.786195</v>
+        <v>22851.786195000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.347718</v>
+        <v>6.3477180000000004</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1471.250000</v>
+        <v>1471.25</v>
       </c>
       <c r="CA10" s="1">
-        <v>-919.891000</v>
+        <v>-919.89099999999996</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>22863.519026</v>
+        <v>22863.519026000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.350978</v>
+        <v>6.3509779999999996</v>
       </c>
       <c r="CE10" s="1">
-        <v>1829.820000</v>
+        <v>1829.82</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1434.170000</v>
+        <v>-1434.17</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>22691.459332</v>
+        <v>22691.459331999999</v>
       </c>
       <c r="B11" s="1">
-        <v>6.303183</v>
+        <v>6.3031829999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>898.292000</v>
+        <v>898.29200000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.216000</v>
+        <v>-202.21600000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>22701.234520</v>
+        <v>22701.234520000002</v>
       </c>
       <c r="G11" s="1">
         <v>6.305898</v>
       </c>
       <c r="H11" s="1">
-        <v>915.823000</v>
+        <v>915.82299999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>-170.677000</v>
+        <v>-170.67699999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>22711.407930</v>
+        <v>22711.407930000001</v>
       </c>
       <c r="L11" s="1">
-        <v>6.308724</v>
+        <v>6.3087239999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>939.384000</v>
+        <v>939.38400000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.780000</v>
+        <v>-120.78</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>22721.645854</v>
+        <v>22721.645853999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.311568</v>
+        <v>6.3115680000000003</v>
       </c>
       <c r="R11" s="1">
-        <v>946.057000</v>
+        <v>946.05700000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.186000</v>
+        <v>-104.18600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>22732.152112</v>
       </c>
       <c r="V11" s="1">
-        <v>6.314487</v>
+        <v>6.3144869999999997</v>
       </c>
       <c r="W11" s="1">
-        <v>952.489000</v>
+        <v>952.48900000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.818100</v>
+        <v>-88.818100000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>22742.626162</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.317396</v>
+        <v>6.3173959999999996</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.508000</v>
+        <v>959.50800000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.009100</v>
+        <v>-77.009100000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>22753.204804</v>
+        <v>22753.204804000001</v>
       </c>
       <c r="AF11" s="1">
         <v>6.320335</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.056000</v>
+        <v>964.05600000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.715200</v>
+        <v>-74.715199999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>22763.717547</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.323255</v>
+        <v>6.3232549999999996</v>
       </c>
       <c r="AL11" s="1">
-        <v>971.113000</v>
+        <v>971.11300000000006</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.384000</v>
+        <v>-79.384</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>22774.348263</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.326208</v>
+        <v>6.3262080000000003</v>
       </c>
       <c r="AQ11" s="1">
-        <v>979.064000</v>
+        <v>979.06399999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.973800</v>
+        <v>-90.973799999999997</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>22785.390202</v>
+        <v>22785.390201999999</v>
       </c>
       <c r="AU11" s="1">
         <v>6.329275</v>
       </c>
       <c r="AV11" s="1">
-        <v>988.788000</v>
+        <v>988.78800000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.712000</v>
+        <v>-108.712</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>22796.452289</v>
+        <v>22796.452289000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.332348</v>
+        <v>6.3323479999999996</v>
       </c>
       <c r="BA11" s="1">
-        <v>996.930000</v>
+        <v>996.93</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.454000</v>
+        <v>-124.45399999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>22807.491932</v>
+        <v>22807.491932000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.335414</v>
+        <v>6.3354140000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1035.270000</v>
+        <v>1035.27</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.123000</v>
+        <v>-197.12299999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>22819.064127</v>
+        <v>22819.064127000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.338629</v>
+        <v>6.3386290000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1102.160000</v>
+        <v>1102.1600000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-315.156000</v>
+        <v>-315.15600000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>22830.137774</v>
+        <v>22830.137773999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.341705</v>
+        <v>6.3417050000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-500.624000</v>
+        <v>-500.62400000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>22841.439119</v>
+        <v>22841.439118999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.344844</v>
+        <v>6.3448440000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1333.890000</v>
+        <v>1333.89</v>
       </c>
       <c r="BV11" s="1">
-        <v>-703.461000</v>
+        <v>-703.46100000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>22852.231073</v>
+        <v>22852.231072999999</v>
       </c>
       <c r="BY11" s="1">
         <v>6.347842</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1471.250000</v>
+        <v>1471.25</v>
       </c>
       <c r="CA11" s="1">
-        <v>-920.008000</v>
+        <v>-920.00800000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>22864.059168</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.351128</v>
+        <v>6.3511280000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1831.800000</v>
+        <v>1831.8</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1433.470000</v>
+        <v>-1433.47</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>22691.837285</v>
+        <v>22691.837285000001</v>
       </c>
       <c r="B12" s="1">
-        <v>6.303288</v>
+        <v>6.3032880000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>898.268000</v>
+        <v>898.26800000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.181000</v>
+        <v>-202.18100000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>22701.579207</v>
+        <v>22701.579206999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6.305994</v>
+        <v>6.3059940000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>916.323000</v>
+        <v>916.32299999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-170.660000</v>
+        <v>-170.66</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>22711.755131</v>
+        <v>22711.755131000002</v>
       </c>
       <c r="L12" s="1">
         <v>6.308821</v>
       </c>
       <c r="M12" s="1">
-        <v>939.473000</v>
+        <v>939.47299999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.737000</v>
+        <v>-120.73699999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>22721.992556</v>
+        <v>22721.992556000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.311665</v>
+        <v>6.3116649999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>946.026000</v>
+        <v>946.02599999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.157000</v>
+        <v>-104.157</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>22732.564783</v>
+        <v>22732.564783000002</v>
       </c>
       <c r="V12" s="1">
-        <v>6.314601</v>
+        <v>6.3146009999999997</v>
       </c>
       <c r="W12" s="1">
-        <v>952.447000</v>
+        <v>952.447</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.821400</v>
+        <v>-88.821399999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>22743.031387</v>
+        <v>22743.031386999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.317509</v>
+        <v>6.3175090000000003</v>
       </c>
       <c r="AB12" s="1">
-        <v>959.494000</v>
+        <v>959.49400000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.059600</v>
+        <v>-77.059600000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>22753.483063</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.320412</v>
+        <v>6.3204120000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.050000</v>
+        <v>964.05</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.687200</v>
+        <v>-74.687200000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>22763.997253</v>
+        <v>22763.997253000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.323333</v>
+        <v>6.3233329999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>971.133000</v>
+        <v>971.13300000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.383800</v>
+        <v>-79.383799999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>22774.709350</v>
+        <v>22774.709350000001</v>
       </c>
       <c r="AP12" s="1">
         <v>6.326308</v>
       </c>
       <c r="AQ12" s="1">
-        <v>979.082000</v>
+        <v>979.08199999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.996000</v>
+        <v>-90.995999999999995</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>22785.753272</v>
+        <v>22785.753272000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.329376</v>
+        <v>6.3293759999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>988.788000</v>
+        <v>988.78800000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.732000</v>
+        <v>-108.732</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>22796.811081</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.332448</v>
+        <v>6.3324480000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>996.943000</v>
+        <v>996.94299999999998</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.463000</v>
+        <v>-124.46299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>22808.211131</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.335614</v>
+        <v>6.3356139999999996</v>
       </c>
       <c r="BF12" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.105000</v>
+        <v>-197.10499999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>22819.440555</v>
+        <v>22819.440555000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.338733</v>
+        <v>6.3387330000000004</v>
       </c>
       <c r="BK12" s="1">
-        <v>1102.140000</v>
+        <v>1102.1400000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-315.126000</v>
+        <v>-315.12599999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>22830.565325</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.341824</v>
+        <v>6.3418239999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1211.380000</v>
+        <v>1211.3800000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-500.566000</v>
+        <v>-500.56599999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>22841.867198</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.344963</v>
+        <v>6.3449629999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1333.940000</v>
+        <v>1333.94</v>
       </c>
       <c r="BV12" s="1">
-        <v>-703.365000</v>
+        <v>-703.36500000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>22852.970644</v>
+        <v>22852.970644000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.348047</v>
+        <v>6.3480470000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="CA12" s="1">
-        <v>-919.951000</v>
+        <v>-919.95100000000002</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>22864.902367</v>
+        <v>22864.902366999999</v>
       </c>
       <c r="CD12" s="1">
         <v>6.351362</v>
       </c>
       <c r="CE12" s="1">
-        <v>1830.430000</v>
+        <v>1830.43</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1434.460000</v>
+        <v>-1434.46</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>22692.180051</v>
+        <v>22692.180050999999</v>
       </c>
       <c r="B13" s="1">
-        <v>6.303383</v>
+        <v>6.3033830000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>898.303000</v>
+        <v>898.303</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.030000</v>
+        <v>-202.03</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>22701.923430</v>
+        <v>22701.923429999999</v>
       </c>
       <c r="G13" s="1">
-        <v>6.306090</v>
+        <v>6.3060900000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>916.010000</v>
+        <v>916.01</v>
       </c>
       <c r="I13" s="1">
-        <v>-170.889000</v>
+        <v>-170.88900000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>22712.101338</v>
       </c>
       <c r="L13" s="1">
-        <v>6.308917</v>
+        <v>6.3089170000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>939.267000</v>
+        <v>939.26700000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.719000</v>
+        <v>-120.71899999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>22722.406220</v>
+        <v>22722.406220000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.311780</v>
+        <v>6.3117799999999997</v>
       </c>
       <c r="R13" s="1">
-        <v>946.013000</v>
+        <v>946.01300000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.157000</v>
+        <v>-104.157</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>22732.843070</v>
+        <v>22732.843069999999</v>
       </c>
       <c r="V13" s="1">
-        <v>6.314679</v>
+        <v>6.3146789999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>952.467000</v>
+        <v>952.46699999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.837500</v>
+        <v>-88.837500000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>22743.322016</v>
+        <v>22743.322015999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.317589</v>
+        <v>6.3175889999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.484000</v>
+        <v>959.48400000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.021000</v>
+        <v>-77.021000000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>22753.827778</v>
+        <v>22753.827777999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.320508</v>
+        <v>6.3205080000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.046000</v>
+        <v>964.04600000000005</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.715100</v>
+        <v>-74.715100000000007</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>22764.346975</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.323430</v>
+        <v>6.3234300000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>971.120000</v>
+        <v>971.12</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.414500</v>
+        <v>-79.414500000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>22775.070935</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.326409</v>
+        <v>6.3264089999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>979.092000</v>
+        <v>979.09199999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.985800</v>
+        <v>-90.985799999999998</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>22786.483878</v>
+        <v>22786.483877999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.329579</v>
+        <v>6.3295789999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>988.795000</v>
+        <v>988.79499999999996</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.744000</v>
+        <v>-108.744</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>22797.532760</v>
+        <v>22797.532759999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>6.332648</v>
+        <v>6.3326479999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>996.953000</v>
+        <v>996.95299999999997</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.452000</v>
+        <v>-124.452</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>22808.601387</v>
+        <v>22808.601386999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.335723</v>
+        <v>6.3357229999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1035.300000</v>
+        <v>1035.3</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.117000</v>
+        <v>-197.11699999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>22819.816036</v>
@@ -3488,557 +3904,557 @@
         <v>6.338838</v>
       </c>
       <c r="BK13" s="1">
-        <v>1102.160000</v>
+        <v>1102.1600000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-315.142000</v>
+        <v>-315.142</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>22830.960140</v>
+        <v>22830.960139999999</v>
       </c>
       <c r="BO13" s="1">
         <v>6.341933</v>
       </c>
       <c r="BP13" s="1">
-        <v>1211.360000</v>
+        <v>1211.3599999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-500.580000</v>
+        <v>-500.58</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>22842.587854</v>
+        <v>22842.587854000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>6.345163</v>
+        <v>6.3451630000000003</v>
       </c>
       <c r="BU13" s="1">
-        <v>1334.150000</v>
+        <v>1334.15</v>
       </c>
       <c r="BV13" s="1">
-        <v>-703.323000</v>
+        <v>-703.32299999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>22853.099566</v>
+        <v>22853.099566000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.348083</v>
+        <v>6.3480829999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="CA13" s="1">
-        <v>-919.834000</v>
+        <v>-919.83399999999995</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>22865.138463</v>
+        <v>22865.138462999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.351427</v>
+        <v>6.3514270000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1829.900000</v>
+        <v>1829.9</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1434.230000</v>
+        <v>-1434.23</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>22692.523251</v>
+        <v>22692.523250999999</v>
       </c>
       <c r="B14" s="1">
-        <v>6.303479</v>
+        <v>6.3034790000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>898.293000</v>
+        <v>898.29300000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.177000</v>
+        <v>-202.17699999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>22702.334119</v>
+        <v>22702.334118999999</v>
       </c>
       <c r="G14" s="1">
-        <v>6.306204</v>
+        <v>6.3062040000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>916.070000</v>
+        <v>916.07</v>
       </c>
       <c r="I14" s="1">
-        <v>-170.612000</v>
+        <v>-170.61199999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>22712.499129</v>
       </c>
       <c r="L14" s="1">
-        <v>6.309028</v>
+        <v>6.3090279999999996</v>
       </c>
       <c r="M14" s="1">
-        <v>939.337000</v>
+        <v>939.33699999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.646000</v>
+        <v>-120.646</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>22722.694395</v>
+        <v>22722.694394999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.311860</v>
+        <v>6.3118600000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>946.022000</v>
+        <v>946.02200000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.130000</v>
+        <v>-104.13</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>22733.187758</v>
       </c>
       <c r="V14" s="1">
-        <v>6.314774</v>
+        <v>6.3147739999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>952.480000</v>
+        <v>952.48</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.863700</v>
+        <v>-88.863699999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>22743.674671</v>
+        <v>22743.674671000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.317687</v>
+        <v>6.3176870000000003</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.565000</v>
+        <v>959.56500000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.962700</v>
+        <v>-76.962699999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>22754.171041</v>
+        <v>22754.171041000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.320603</v>
+        <v>6.3206030000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.054000</v>
+        <v>964.05399999999997</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.714300</v>
+        <v>-74.714299999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>22764.693675</v>
+        <v>22764.693674999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.323526</v>
+        <v>6.3235260000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>971.134000</v>
+        <v>971.13400000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.376400</v>
+        <v>-79.376400000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>22775.788149</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.326608</v>
+        <v>6.3266080000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>979.089000</v>
+        <v>979.08900000000006</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.990700</v>
+        <v>-90.990700000000004</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>22786.874726</v>
+        <v>22786.874725999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.329687</v>
+        <v>6.3296869999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>988.782000</v>
+        <v>988.78200000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.741000</v>
+        <v>-108.741</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>22797.908728</v>
+        <v>22797.908727999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.332752</v>
+        <v>6.3327520000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>996.939000</v>
+        <v>996.93899999999996</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.441000</v>
+        <v>-124.441</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>22808.966041</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.335824</v>
+        <v>6.3358239999999997</v>
       </c>
       <c r="BF14" s="1">
-        <v>1035.300000</v>
+        <v>1035.3</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.095000</v>
+        <v>-197.095</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>22820.489594</v>
+        <v>22820.489593999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.339025</v>
+        <v>6.3390250000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1102.170000</v>
+        <v>1102.17</v>
       </c>
       <c r="BL14" s="1">
-        <v>-315.124000</v>
+        <v>-315.12400000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>22831.691739</v>
+        <v>22831.691739000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>6.342137</v>
+        <v>6.3421370000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1211.380000</v>
+        <v>1211.3800000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-500.581000</v>
+        <v>-500.58100000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>22842.711388</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.345198</v>
+        <v>6.3451979999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1334.310000</v>
+        <v>1334.31</v>
       </c>
       <c r="BV14" s="1">
-        <v>-703.436000</v>
+        <v>-703.43600000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>22853.522191</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.348201</v>
+        <v>6.3482010000000004</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1471.250000</v>
+        <v>1471.25</v>
       </c>
       <c r="CA14" s="1">
-        <v>-919.881000</v>
+        <v>-919.88099999999997</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>22865.657310</v>
+        <v>22865.657309999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.351571</v>
+        <v>6.3515709999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1831.500000</v>
+        <v>1831.5</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1434.210000</v>
+        <v>-1434.21</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>22692.930002</v>
+        <v>22692.930002000001</v>
       </c>
       <c r="B15" s="1">
-        <v>6.303592</v>
+        <v>6.3035920000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>898.245000</v>
+        <v>898.245</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.022000</v>
+        <v>-202.02199999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>22702.633206</v>
+        <v>22702.633205999999</v>
       </c>
       <c r="G15" s="1">
-        <v>6.306287</v>
+        <v>6.3062870000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>915.997000</v>
+        <v>915.99699999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>-170.447000</v>
+        <v>-170.447</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>22712.816570</v>
+        <v>22712.816569999999</v>
       </c>
       <c r="L15" s="1">
-        <v>6.309116</v>
+        <v>6.3091160000000004</v>
       </c>
       <c r="M15" s="1">
-        <v>939.414000</v>
+        <v>939.41399999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.446000</v>
+        <v>-120.446</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>22723.045098</v>
+        <v>22723.045097999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>6.311957</v>
+        <v>6.3119569999999996</v>
       </c>
       <c r="R15" s="1">
-        <v>946.036000</v>
+        <v>946.03599999999994</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.126000</v>
+        <v>-104.126</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>22733.529533</v>
+        <v>22733.529533000001</v>
       </c>
       <c r="V15" s="1">
-        <v>6.314869</v>
+        <v>6.3148689999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>952.464000</v>
+        <v>952.46400000000006</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.836900</v>
+        <v>-88.8369</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>22744.022863</v>
+        <v>22744.022862999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.317784</v>
+        <v>6.3177839999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>959.534000</v>
+        <v>959.53399999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.013800</v>
+        <v>-77.013800000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>22754.858997</v>
+        <v>22754.858996999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.320794</v>
+        <v>6.3207940000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.098000</v>
+        <v>964.09799999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.696000</v>
+        <v>-74.695999999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>22765.396963</v>
+        <v>22765.396962999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.323721</v>
+        <v>6.3237209999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>971.128000</v>
+        <v>971.12800000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.394600</v>
+        <v>-79.394599999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>22776.148773</v>
+        <v>22776.148773000001</v>
       </c>
       <c r="AP15" s="1">
         <v>6.326708</v>
       </c>
       <c r="AQ15" s="1">
-        <v>979.066000</v>
+        <v>979.06600000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.977900</v>
+        <v>-90.977900000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>22787.239317</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.329789</v>
+        <v>6.3297889999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>988.805000</v>
+        <v>988.80499999999995</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.733000</v>
+        <v>-108.733</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>22798.288663</v>
+        <v>22798.288662999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.332858</v>
+        <v>6.3328579999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>996.922000</v>
+        <v>996.92200000000003</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.459000</v>
+        <v>-124.459</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>22809.625224</v>
+        <v>22809.625223999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>6.336007</v>
+        <v>6.3360070000000004</v>
       </c>
       <c r="BF15" s="1">
-        <v>1035.280000</v>
+        <v>1035.28</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.108000</v>
+        <v>-197.108</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>22820.596730</v>
+        <v>22820.596730000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.339055</v>
+        <v>6.3390550000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1102.180000</v>
+        <v>1102.18</v>
       </c>
       <c r="BL15" s="1">
-        <v>-315.108000</v>
+        <v>-315.108</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>22832.211090</v>
+        <v>22832.211090000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.342281</v>
+        <v>6.3422809999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1211.320000</v>
+        <v>1211.32</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-500.555000</v>
+        <v>-500.55500000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>22843.148348</v>
+        <v>22843.148347999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.345319</v>
+        <v>6.3453189999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1334.450000</v>
+        <v>1334.45</v>
       </c>
       <c r="BV15" s="1">
-        <v>-703.534000</v>
+        <v>-703.53399999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>22853.971534</v>
@@ -4047,452 +4463,452 @@
         <v>6.348325</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1471.320000</v>
+        <v>1471.32</v>
       </c>
       <c r="CA15" s="1">
-        <v>-919.955000</v>
+        <v>-919.95500000000004</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>22866.176589</v>
+        <v>22866.176588999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.351716</v>
+        <v>6.3517159999999997</v>
       </c>
       <c r="CE15" s="1">
-        <v>1831.450000</v>
+        <v>1831.45</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1432.770000</v>
+        <v>-1432.77</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>22693.222114</v>
       </c>
       <c r="B16" s="1">
-        <v>6.303673</v>
+        <v>6.3036729999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>898.218000</v>
+        <v>898.21799999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.079000</v>
+        <v>-202.07900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>22702.974949</v>
+        <v>22702.974948999999</v>
       </c>
       <c r="G16" s="1">
-        <v>6.306382</v>
+        <v>6.3063820000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>916.211000</v>
+        <v>916.21100000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-170.680000</v>
+        <v>-170.68</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>22713.186088</v>
+        <v>22713.186087999999</v>
       </c>
       <c r="L16" s="1">
-        <v>6.309218</v>
+        <v>6.3092180000000004</v>
       </c>
       <c r="M16" s="1">
-        <v>939.204000</v>
+        <v>939.20399999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.858000</v>
+        <v>-120.858</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>22723.393754</v>
+        <v>22723.393754000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.312054</v>
+        <v>6.3120539999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>946.087000</v>
+        <v>946.08699999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.177000</v>
+        <v>-104.17700000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>22734.215964</v>
+        <v>22734.215963999999</v>
       </c>
       <c r="V16" s="1">
-        <v>6.315060</v>
+        <v>6.3150599999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>952.486000</v>
+        <v>952.48599999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.852000</v>
+        <v>-88.852000000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>22744.720766</v>
+        <v>22744.720765999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.317978</v>
+        <v>6.3179780000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.416000</v>
+        <v>959.41600000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.965100</v>
+        <v>-76.965100000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>22755.201696</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.320889</v>
+        <v>6.3208890000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.105000</v>
+        <v>964.10500000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.739300</v>
+        <v>-74.7393</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>22765.739202</v>
+        <v>22765.739202000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.323816</v>
+        <v>6.3238159999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>971.139000</v>
+        <v>971.13900000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.400900</v>
+        <v>-79.400899999999993</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>22776.506884</v>
+        <v>22776.506883999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.326807</v>
+        <v>6.3268069999999996</v>
       </c>
       <c r="AQ16" s="1">
-        <v>979.079000</v>
+        <v>979.07899999999995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.993700</v>
+        <v>-90.993700000000004</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>22787.909877</v>
+        <v>22787.909876999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.329975</v>
+        <v>6.3299750000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>988.792000</v>
+        <v>988.79200000000003</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.736000</v>
+        <v>-108.736</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>22798.955825</v>
+        <v>22798.955825000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>6.333043</v>
       </c>
       <c r="BA16" s="1">
-        <v>996.949000</v>
+        <v>996.94899999999996</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.458000</v>
+        <v>-124.458</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>22810.050297</v>
+        <v>22810.050297000002</v>
       </c>
       <c r="BE16" s="1">
         <v>6.336125</v>
       </c>
       <c r="BF16" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.104000</v>
+        <v>-197.10400000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>22820.969759</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.339158</v>
+        <v>6.3391580000000003</v>
       </c>
       <c r="BK16" s="1">
-        <v>1102.180000</v>
+        <v>1102.18</v>
       </c>
       <c r="BL16" s="1">
-        <v>-315.124000</v>
+        <v>-315.12400000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>22832.623722</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.342395</v>
+        <v>6.3423949999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-500.583000</v>
+        <v>-500.58300000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>22843.577371</v>
+        <v>22843.577370999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.345438</v>
+        <v>6.3454379999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>1334.370000</v>
+        <v>1334.37</v>
       </c>
       <c r="BV16" s="1">
-        <v>-703.659000</v>
+        <v>-703.65899999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>22854.397192</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.348444</v>
+        <v>6.3484439999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1471.290000</v>
+        <v>1471.29</v>
       </c>
       <c r="CA16" s="1">
-        <v>-919.935000</v>
+        <v>-919.93499999999995</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>22866.693420</v>
+        <v>22866.69342</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.351859</v>
+        <v>6.3518590000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1830.060000</v>
+        <v>1830.06</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1432.770000</v>
+        <v>-1432.77</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>22693.567330</v>
+        <v>22693.567330000002</v>
       </c>
       <c r="B17" s="1">
         <v>6.303769</v>
       </c>
       <c r="C17" s="1">
-        <v>898.321000</v>
+        <v>898.32100000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.135000</v>
+        <v>-202.13499999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>22703.318676</v>
+        <v>22703.318675999999</v>
       </c>
       <c r="G17" s="1">
-        <v>6.306477</v>
+        <v>6.3064770000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>916.426000</v>
+        <v>916.42600000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-170.611000</v>
+        <v>-170.61099999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>22713.871559</v>
+        <v>22713.871558999999</v>
       </c>
       <c r="L17" s="1">
-        <v>6.309409</v>
+        <v>6.3094089999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>939.520000</v>
+        <v>939.52</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.672000</v>
+        <v>-120.672</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>22724.090137</v>
+        <v>22724.090136999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.312247</v>
+        <v>6.3122470000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>946.035000</v>
+        <v>946.03499999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.151000</v>
+        <v>-104.151</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>22734.561675</v>
+        <v>22734.561675000001</v>
       </c>
       <c r="V17" s="1">
         <v>6.315156</v>
       </c>
       <c r="W17" s="1">
-        <v>952.522000</v>
+        <v>952.52200000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.866500</v>
+        <v>-88.866500000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>22745.065453</v>
+        <v>22745.065452999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.318074</v>
+        <v>6.3180740000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.377000</v>
+        <v>959.37699999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.953300</v>
+        <v>-76.953299999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>22755.543936</v>
+        <v>22755.543935999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.320984</v>
+        <v>6.3209840000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.086000</v>
+        <v>964.08600000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.743300</v>
+        <v>-74.743300000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>22766.391937</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.323998</v>
+        <v>6.3239979999999996</v>
       </c>
       <c r="AL17" s="1">
-        <v>971.126000</v>
+        <v>971.12599999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.421700</v>
+        <v>-79.421700000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>22777.180418</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.326995</v>
+        <v>6.3269950000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>979.087000</v>
+        <v>979.08699999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.978000</v>
+        <v>-90.977999999999994</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>22788.366223</v>
+        <v>22788.366223000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.330102</v>
+        <v>6.3301020000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>988.784000</v>
+        <v>988.78399999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.727000</v>
+        <v>-108.727</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>22799.366966</v>
+        <v>22799.366966000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>6.333157</v>
+        <v>6.3331569999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>996.936000</v>
+        <v>996.93600000000004</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.457000</v>
+        <v>-124.45699999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>22810.438704</v>
@@ -4501,225 +4917,225 @@
         <v>6.336233</v>
       </c>
       <c r="BF17" s="1">
-        <v>1035.300000</v>
+        <v>1035.3</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.110000</v>
+        <v>-197.11</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>22821.343737</v>
+        <v>22821.343736999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.339262</v>
+        <v>6.3392619999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1102.160000</v>
+        <v>1102.1600000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-315.118000</v>
+        <v>-315.11799999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>22833.017545</v>
+        <v>22833.017544999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.342505</v>
+        <v>6.3425050000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1211.360000</v>
+        <v>1211.3599999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-500.629000</v>
+        <v>-500.62900000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>22844.002939</v>
+        <v>22844.002939000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.345556</v>
+        <v>6.3455560000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1334.400000</v>
+        <v>1334.4</v>
       </c>
       <c r="BV17" s="1">
-        <v>-703.805000</v>
+        <v>-703.80499999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>22854.820189</v>
+        <v>22854.820188999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.348561</v>
+        <v>6.3485610000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1471.220000</v>
+        <v>1471.22</v>
       </c>
       <c r="CA17" s="1">
-        <v>-919.878000</v>
+        <v>-919.87800000000004</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>22867.208764</v>
+        <v>22867.208763999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>6.352002</v>
+        <v>6.3520019999999997</v>
       </c>
       <c r="CE17" s="1">
-        <v>1830.420000</v>
+        <v>1830.42</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1432.700000</v>
+        <v>-1432.7</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>22693.909569</v>
+        <v>22693.909568999999</v>
       </c>
       <c r="B18" s="1">
-        <v>6.303864</v>
+        <v>6.3038639999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>898.265000</v>
+        <v>898.26499999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.141000</v>
+        <v>-202.14099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>22704.012579</v>
+        <v>22704.012578999998</v>
       </c>
       <c r="G18" s="1">
-        <v>6.306670</v>
+        <v>6.3066700000000004</v>
       </c>
       <c r="H18" s="1">
-        <v>916.452000</v>
+        <v>916.452</v>
       </c>
       <c r="I18" s="1">
-        <v>-170.597000</v>
+        <v>-170.59700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>22714.215814</v>
+        <v>22714.215813999999</v>
       </c>
       <c r="L18" s="1">
-        <v>6.309504</v>
+        <v>6.3095039999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>939.431000</v>
+        <v>939.43100000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.803000</v>
+        <v>-120.803</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>22724.439353</v>
+        <v>22724.439353000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.312344</v>
+        <v>6.3123440000000004</v>
       </c>
       <c r="R18" s="1">
-        <v>946.050000</v>
+        <v>946.05</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.197000</v>
+        <v>-104.197</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>22734.904939</v>
       </c>
       <c r="V18" s="1">
-        <v>6.315251</v>
+        <v>6.3152509999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>952.484000</v>
+        <v>952.48400000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.796100</v>
+        <v>-88.796099999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>22745.414178</v>
+        <v>22745.414177999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.318171</v>
+        <v>6.3181710000000004</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.560000</v>
+        <v>959.56</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.964800</v>
+        <v>-76.964799999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>22756.194191</v>
+        <v>22756.194190999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.321165</v>
+        <v>6.3211649999999997</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.120000</v>
+        <v>964.12</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.737800</v>
+        <v>-74.737799999999993</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>22766.784273</v>
+        <v>22766.784273000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.324107</v>
+        <v>6.3241069999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>971.119000</v>
+        <v>971.11900000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.386200</v>
+        <v>-79.386200000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>22777.622386</v>
+        <v>22777.622385999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.327117</v>
+        <v>6.3271170000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>979.077000</v>
+        <v>979.077</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.992700</v>
+        <v>-90.992699999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>22788.730787</v>
@@ -4728,437 +5144,437 @@
         <v>6.330203</v>
       </c>
       <c r="AV18" s="1">
-        <v>988.788000</v>
+        <v>988.78800000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.719000</v>
+        <v>-108.71899999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>22799.746405</v>
+        <v>22799.746405000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.333263</v>
+        <v>6.3332629999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>996.948000</v>
+        <v>996.94799999999998</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.450000</v>
+        <v>-124.45</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>22810.798791</v>
+        <v>22810.798791000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.336333</v>
+        <v>6.3363329999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1035.260000</v>
+        <v>1035.26</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.102000</v>
+        <v>-197.102</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>22821.756904</v>
+        <v>22821.756904000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.339377</v>
+        <v>6.3393769999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1102.180000</v>
+        <v>1102.18</v>
       </c>
       <c r="BL18" s="1">
-        <v>-315.116000</v>
+        <v>-315.11599999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>22833.436206</v>
+        <v>22833.436205999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.342621</v>
+        <v>6.3426210000000003</v>
       </c>
       <c r="BP18" s="1">
-        <v>1211.320000</v>
+        <v>1211.32</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-500.595000</v>
+        <v>-500.59500000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>22844.421562</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.345673</v>
+        <v>6.3456729999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>1334.270000</v>
+        <v>1334.27</v>
       </c>
       <c r="BV18" s="1">
-        <v>-703.862000</v>
+        <v>-703.86199999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>22855.241789</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.348678</v>
+        <v>6.3486779999999996</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1471.190000</v>
+        <v>1471.19</v>
       </c>
       <c r="CA18" s="1">
-        <v>-919.806000</v>
+        <v>-919.80600000000004</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>22867.765771</v>
+        <v>22867.765770999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.352157</v>
+        <v>6.3521570000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1831.570000</v>
+        <v>1831.57</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1433.110000</v>
+        <v>-1433.11</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>22694.589586</v>
+        <v>22694.589585999998</v>
       </c>
       <c r="B19" s="1">
-        <v>6.304053</v>
+        <v>6.3040529999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>898.341000</v>
+        <v>898.34100000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.145000</v>
+        <v>-202.14500000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>22704.355811</v>
+        <v>22704.355811000001</v>
       </c>
       <c r="G19" s="1">
-        <v>6.306766</v>
+        <v>6.3067659999999997</v>
       </c>
       <c r="H19" s="1">
-        <v>916.157000</v>
+        <v>916.15700000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-170.908000</v>
+        <v>-170.90799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>22714.560535</v>
+        <v>22714.560535000001</v>
       </c>
       <c r="L19" s="1">
-        <v>6.309600</v>
+        <v>6.3095999999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>939.322000</v>
+        <v>939.322</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.777000</v>
+        <v>-120.777</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>22724.789993</v>
+        <v>22724.789992999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.312442</v>
+        <v>6.3124419999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>946.031000</v>
+        <v>946.03099999999995</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.152000</v>
+        <v>-104.152</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>22735.555691</v>
+        <v>22735.555691000001</v>
       </c>
       <c r="V19" s="1">
-        <v>6.315432</v>
+        <v>6.3154320000000004</v>
       </c>
       <c r="W19" s="1">
-        <v>952.491000</v>
+        <v>952.49099999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.846500</v>
+        <v>-88.846500000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>22746.078286</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.318355</v>
+        <v>6.3183550000000004</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.466000</v>
+        <v>959.46600000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.994800</v>
+        <v>-76.994799999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>22756.572518</v>
+        <v>22756.572518000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.321270</v>
+        <v>6.3212700000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.070000</v>
+        <v>964.07</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.712700</v>
+        <v>-74.712699999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>22767.134448</v>
+        <v>22767.134448000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.324204</v>
+        <v>6.3242039999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>971.120000</v>
+        <v>971.12</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.409700</v>
+        <v>-79.409700000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>22777.981458</v>
+        <v>22777.981457999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.327217</v>
+        <v>6.3272170000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>979.079000</v>
+        <v>979.07899999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.975500</v>
+        <v>-90.975499999999997</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>22789.097828</v>
+        <v>22789.097828000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.330305</v>
+        <v>6.3303050000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>988.784000</v>
+        <v>988.78399999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.698000</v>
+        <v>-108.69799999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>22800.162580</v>
+        <v>22800.16258</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.333378</v>
+        <v>6.3333779999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>996.952000</v>
+        <v>996.952</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.434000</v>
+        <v>-124.434</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>22811.225318</v>
+        <v>22811.225318000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.336451</v>
+        <v>6.3364510000000003</v>
       </c>
       <c r="BF19" s="1">
-        <v>1035.300000</v>
+        <v>1035.3</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.136000</v>
+        <v>-197.136</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>22822.096663</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.339471</v>
+        <v>6.3394709999999996</v>
       </c>
       <c r="BK19" s="1">
-        <v>1102.130000</v>
+        <v>1102.1300000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-315.133000</v>
+        <v>-315.13299999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>22833.835480</v>
+        <v>22833.835480000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.342732</v>
+        <v>6.3427319999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1211.330000</v>
+        <v>1211.33</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-500.618000</v>
+        <v>-500.61799999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>22844.845643</v>
+        <v>22844.845643000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.345790</v>
+        <v>6.34579</v>
       </c>
       <c r="BU19" s="1">
-        <v>1334.110000</v>
+        <v>1334.11</v>
       </c>
       <c r="BV19" s="1">
-        <v>-703.955000</v>
+        <v>-703.95500000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>22855.671323</v>
+        <v>22855.671322999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.348798</v>
+        <v>6.3487980000000004</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1471.210000</v>
+        <v>1471.21</v>
       </c>
       <c r="CA19" s="1">
-        <v>-919.911000</v>
+        <v>-919.91099999999994</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>22868.293020</v>
+        <v>22868.293020000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.352304</v>
+        <v>6.3523040000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>1830.400000</v>
+        <v>1830.4</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1432.800000</v>
+        <v>-1432.8</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>22695.099504</v>
+        <v>22695.099504000002</v>
       </c>
       <c r="B20" s="1">
-        <v>6.304194</v>
+        <v>6.3041939999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>898.199000</v>
+        <v>898.19899999999996</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.261000</v>
+        <v>-202.261</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>22704.701058</v>
+        <v>22704.701057999999</v>
       </c>
       <c r="G20" s="1">
-        <v>6.306861</v>
+        <v>6.3068609999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>916.313000</v>
+        <v>916.31299999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-170.723000</v>
+        <v>-170.72300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>22715.206293</v>
+        <v>22715.206292999999</v>
       </c>
       <c r="L20" s="1">
-        <v>6.309780</v>
+        <v>6.3097799999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>939.502000</v>
+        <v>939.50199999999995</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.624000</v>
+        <v>-120.624</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>22725.439751</v>
+        <v>22725.439751000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.312622</v>
+        <v>6.3126220000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>946.032000</v>
+        <v>946.03200000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.118000</v>
+        <v>-104.11799999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>22735.933609</v>
@@ -5167,405 +5583,405 @@
         <v>6.315537</v>
       </c>
       <c r="W20" s="1">
-        <v>952.431000</v>
+        <v>952.43100000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.822000</v>
+        <v>-88.822000000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>22746.461692</v>
+        <v>22746.461692000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.318462</v>
+        <v>6.3184620000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.453000</v>
+        <v>959.45299999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.029300</v>
+        <v>-77.029300000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>22756.915374</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.321365</v>
+        <v>6.3213650000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.125000</v>
+        <v>964.125</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.713500</v>
+        <v>-74.713499999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>22767.483664</v>
+        <v>22767.483663999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.324301</v>
+        <v>6.3243010000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>971.141000</v>
+        <v>971.14099999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.386500</v>
+        <v>-79.386499999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>22778.332130</v>
+        <v>22778.332129999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.327314</v>
+        <v>6.3273140000000003</v>
       </c>
       <c r="AQ20" s="1">
-        <v>979.093000</v>
+        <v>979.09299999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.951100</v>
+        <v>-90.951099999999997</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>22789.516420</v>
+        <v>22789.51642</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.330421</v>
+        <v>6.3304210000000003</v>
       </c>
       <c r="AV20" s="1">
-        <v>988.811000</v>
+        <v>988.81100000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.723000</v>
+        <v>-108.723</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>22800.501914</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.333473</v>
+        <v>6.3334729999999997</v>
       </c>
       <c r="BA20" s="1">
-        <v>996.944000</v>
+        <v>996.94399999999996</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.444000</v>
+        <v>-124.444</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>22811.521430</v>
+        <v>22811.521430000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.336534</v>
+        <v>6.3365340000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.099000</v>
+        <v>-197.09899999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>22822.477064</v>
+        <v>22822.477063999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.339577</v>
+        <v>6.3395770000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1102.170000</v>
+        <v>1102.17</v>
       </c>
       <c r="BL20" s="1">
-        <v>-315.119000</v>
+        <v>-315.11900000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>22834.252089</v>
+        <v>22834.252089000001</v>
       </c>
       <c r="BO20" s="1">
         <v>6.342848</v>
       </c>
       <c r="BP20" s="1">
-        <v>1211.380000</v>
+        <v>1211.3800000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-500.557000</v>
+        <v>-500.55700000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>22845.247401</v>
+        <v>22845.247401000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.345902</v>
+        <v>6.3459019999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>1334.000000</v>
+        <v>1334</v>
       </c>
       <c r="BV20" s="1">
-        <v>-703.915000</v>
+        <v>-703.91499999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>22856.085986</v>
+        <v>22856.085985999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.348913</v>
+        <v>6.3489129999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="CA20" s="1">
-        <v>-919.866000</v>
+        <v>-919.86599999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>22868.815307</v>
+        <v>22868.815307000001</v>
       </c>
       <c r="CD20" s="1">
         <v>6.352449</v>
       </c>
       <c r="CE20" s="1">
-        <v>1830.300000</v>
+        <v>1830.3</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1434.340000</v>
+        <v>-1434.34</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>22695.272081</v>
+        <v>22695.272080999999</v>
       </c>
       <c r="B21" s="1">
-        <v>6.304242</v>
+        <v>6.3042420000000003</v>
       </c>
       <c r="C21" s="1">
-        <v>898.334000</v>
+        <v>898.33399999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.212000</v>
+        <v>-202.21199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>22705.347348</v>
+        <v>22705.347347999999</v>
       </c>
       <c r="G21" s="1">
-        <v>6.307041</v>
+        <v>6.3070409999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>916.076000</v>
+        <v>916.07600000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.127000</v>
+        <v>-171.12700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>22715.597671</v>
       </c>
       <c r="L21" s="1">
-        <v>6.309888</v>
+        <v>6.3098879999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>939.298000</v>
+        <v>939.298</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.665000</v>
+        <v>-120.66500000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>22725.834103</v>
+        <v>22725.834103000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.312732</v>
+        <v>6.3127319999999996</v>
       </c>
       <c r="R21" s="1">
-        <v>946.055000</v>
+        <v>946.05499999999995</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.116000</v>
+        <v>-104.116</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>22736.274519</v>
+        <v>22736.274518999999</v>
       </c>
       <c r="V21" s="1">
-        <v>6.315632</v>
+        <v>6.3156319999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>952.497000</v>
+        <v>952.49699999999996</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.863200</v>
+        <v>-88.863200000000006</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>22746.809884</v>
+        <v>22746.809883999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.318558</v>
+        <v>6.3185580000000003</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.371000</v>
+        <v>959.37099999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.029900</v>
+        <v>-77.029899999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>22757.262573</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.321462</v>
+        <v>6.3214620000000004</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.064000</v>
+        <v>964.06399999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.734600</v>
+        <v>-74.7346</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>22767.898319</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.324416</v>
+        <v>6.3244160000000003</v>
       </c>
       <c r="AL21" s="1">
-        <v>971.134000</v>
+        <v>971.13400000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.393000</v>
+        <v>-79.393000000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>22778.749793</v>
+        <v>22778.749792999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.327430</v>
+        <v>6.3274299999999997</v>
       </c>
       <c r="AQ21" s="1">
-        <v>979.058000</v>
+        <v>979.05799999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.994800</v>
+        <v>-90.994799999999998</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>22789.826418</v>
+        <v>22789.826418000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.330507</v>
+        <v>6.3305069999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>988.794000</v>
+        <v>988.79399999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.726000</v>
+        <v>-108.726</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>22800.860419</v>
+        <v>22800.860419000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.333572</v>
+        <v>6.3335720000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>996.951000</v>
+        <v>996.95100000000002</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.446000</v>
+        <v>-124.446</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>22811.882550</v>
+        <v>22811.882549999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.336634</v>
+        <v>6.3366340000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1035.300000</v>
+        <v>1035.3</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.109000</v>
+        <v>-197.10900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>22822.866754</v>
+        <v>22822.866753999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.339685</v>
+        <v>6.3396850000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1102.160000</v>
+        <v>1102.1600000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-315.147000</v>
+        <v>-315.14699999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>22834.832180</v>
+        <v>22834.832180000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.343009</v>
+        <v>6.3430090000000003</v>
       </c>
       <c r="BP21" s="1">
-        <v>1211.360000</v>
+        <v>1211.3599999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-500.587000</v>
+        <v>-500.58699999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>22845.688842</v>
@@ -5574,13 +5990,13 @@
         <v>6.346025</v>
       </c>
       <c r="BU21" s="1">
-        <v>1333.890000</v>
+        <v>1333.89</v>
       </c>
       <c r="BV21" s="1">
-        <v>-703.843000</v>
+        <v>-703.84299999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>22856.534399</v>
@@ -5589,90 +6005,90 @@
         <v>6.349037</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1471.290000</v>
+        <v>1471.29</v>
       </c>
       <c r="CA21" s="1">
-        <v>-919.843000</v>
+        <v>-919.84299999999996</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>22869.350491</v>
+        <v>22869.350491000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.352597</v>
+        <v>6.3525970000000003</v>
       </c>
       <c r="CE21" s="1">
-        <v>1831.260000</v>
+        <v>1831.26</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1432.570000</v>
+        <v>-1432.57</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>22695.706574</v>
       </c>
       <c r="B22" s="1">
-        <v>6.304363</v>
+        <v>6.3043630000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>898.299000</v>
+        <v>898.29899999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.049000</v>
+        <v>-202.04900000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>22705.735719</v>
       </c>
       <c r="G22" s="1">
-        <v>6.307149</v>
+        <v>6.3071489999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>916.303000</v>
+        <v>916.303</v>
       </c>
       <c r="I22" s="1">
-        <v>-170.579000</v>
+        <v>-170.57900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>22715.929957</v>
       </c>
       <c r="L22" s="1">
-        <v>6.309981</v>
+        <v>6.3099809999999996</v>
       </c>
       <c r="M22" s="1">
-        <v>939.257000</v>
+        <v>939.25699999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.814000</v>
+        <v>-120.81399999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>22726.180317</v>
+        <v>22726.180316999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.312828</v>
+        <v>6.3128279999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>946.068000</v>
+        <v>946.06799999999998</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.157000</v>
+        <v>-104.157</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>22736.621066</v>
@@ -5681,88 +6097,88 @@
         <v>6.315728</v>
       </c>
       <c r="W22" s="1">
-        <v>952.421000</v>
+        <v>952.42100000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.798900</v>
+        <v>-88.798900000000003</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>22747.157579</v>
+        <v>22747.157578999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.318655</v>
+        <v>6.3186549999999997</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.527000</v>
+        <v>959.52700000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.999600</v>
+        <v>-76.999600000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>22757.685164</v>
+        <v>22757.685163999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.321579</v>
+        <v>6.3215789999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.053000</v>
+        <v>964.053</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.751800</v>
+        <v>-74.751800000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>22768.179055</v>
+        <v>22768.179055000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.324494</v>
+        <v>6.3244939999999996</v>
       </c>
       <c r="AL22" s="1">
-        <v>971.135000</v>
+        <v>971.13499999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.367500</v>
+        <v>-79.367500000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>22779.063232</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.327518</v>
+        <v>6.3275180000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>979.061000</v>
+        <v>979.06100000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.970700</v>
+        <v>-90.970699999999994</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>22790.189522</v>
+        <v>22790.189522000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.330608</v>
+        <v>6.3306079999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>988.801000</v>
+        <v>988.80100000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.720000</v>
+        <v>-108.72</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>22801.219523</v>
@@ -5771,1133 +6187,1134 @@
         <v>6.333672</v>
       </c>
       <c r="BA22" s="1">
-        <v>996.935000</v>
+        <v>996.93499999999995</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.454000</v>
+        <v>-124.45399999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>22812.242613</v>
+        <v>22812.242612999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.336734</v>
+        <v>6.3367339999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1035.280000</v>
+        <v>1035.28</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.091000</v>
+        <v>-197.09100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>22823.615878</v>
+        <v>22823.615878000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>6.339893</v>
       </c>
       <c r="BK22" s="1">
-        <v>1102.180000</v>
+        <v>1102.18</v>
       </c>
       <c r="BL22" s="1">
-        <v>-315.129000</v>
+        <v>-315.12900000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>22835.071015</v>
+        <v>22835.071015000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.343075</v>
+        <v>6.3430749999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1211.310000</v>
+        <v>1211.31</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-500.553000</v>
+        <v>-500.553</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>22846.116427</v>
+        <v>22846.116427000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.346143</v>
+        <v>6.3461429999999996</v>
       </c>
       <c r="BU22" s="1">
-        <v>1333.680000</v>
+        <v>1333.68</v>
       </c>
       <c r="BV22" s="1">
-        <v>-703.761000</v>
+        <v>-703.76099999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>22856.956986</v>
+        <v>22856.956986000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.349155</v>
+        <v>6.3491549999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1471.210000</v>
+        <v>1471.21</v>
       </c>
       <c r="CA22" s="1">
-        <v>-919.846000</v>
+        <v>-919.846</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>22870.203645</v>
+        <v>22870.203645000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.352834</v>
+        <v>6.3528339999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>1831.300000</v>
+        <v>1831.3</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1434.390000</v>
+        <v>-1434.39</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>22695.964526</v>
       </c>
       <c r="B23" s="1">
-        <v>6.304435</v>
+        <v>6.3044349999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>898.269000</v>
+        <v>898.26900000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.193000</v>
+        <v>-202.19300000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>22706.078945</v>
+        <v>22706.078945000001</v>
       </c>
       <c r="G23" s="1">
-        <v>6.307244</v>
+        <v>6.3072439999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>916.501000</v>
+        <v>916.50099999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-170.815000</v>
+        <v>-170.815</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>22716.290051</v>
       </c>
       <c r="L23" s="1">
-        <v>6.310081</v>
+        <v>6.3100810000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>939.420000</v>
+        <v>939.42</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.810000</v>
+        <v>-120.81</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>22726.531941</v>
+        <v>22726.531941000001</v>
       </c>
       <c r="Q23" s="1">
         <v>6.312926</v>
       </c>
       <c r="R23" s="1">
-        <v>946.033000</v>
+        <v>946.03300000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.161000</v>
+        <v>-104.161</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>22737.049113</v>
+        <v>22737.049113000001</v>
       </c>
       <c r="V23" s="1">
-        <v>6.315847</v>
+        <v>6.3158469999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>952.514000</v>
+        <v>952.51400000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.828900</v>
+        <v>-88.828900000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>22747.664491</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.318796</v>
+        <v>6.3187959999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>959.442000</v>
+        <v>959.44200000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.993300</v>
+        <v>-76.993300000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>22757.972348</v>
+        <v>22757.972347999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.321659</v>
+        <v>6.3216590000000004</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.084000</v>
+        <v>964.08399999999995</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.733500</v>
+        <v>-74.733500000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>22768.529199</v>
+        <v>22768.529199000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.324591</v>
+        <v>6.3245909999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>971.143000</v>
+        <v>971.14300000000003</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.404100</v>
+        <v>-79.4041</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>22779.425808</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.327618</v>
+        <v>6.3276180000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>979.092000</v>
+        <v>979.09199999999998</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.952300</v>
+        <v>-90.952299999999994</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>22790.554582</v>
+        <v>22790.554582000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.330710</v>
+        <v>6.3307099999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>988.811000</v>
+        <v>988.81100000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.706000</v>
+        <v>-108.706</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>22801.940210</v>
+        <v>22801.940210000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.333872</v>
+        <v>6.3338720000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>996.967000</v>
+        <v>996.96699999999998</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.454000</v>
+        <v>-124.45399999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>22812.966772</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.336935</v>
+        <v>6.3369350000000004</v>
       </c>
       <c r="BF23" s="1">
-        <v>1035.280000</v>
+        <v>1035.28</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.111000</v>
+        <v>-197.11099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>22824.019160</v>
+        <v>22824.01916</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.340005</v>
+        <v>6.3400049999999997</v>
       </c>
       <c r="BK23" s="1">
-        <v>1102.160000</v>
+        <v>1102.1600000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-315.137000</v>
+        <v>-315.137</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>22835.469797</v>
+        <v>22835.469797000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>6.343186</v>
+        <v>6.3431860000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-500.589000</v>
+        <v>-500.589</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>22846.530552</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.346258</v>
+        <v>6.3462579999999997</v>
       </c>
       <c r="BU23" s="1">
-        <v>1333.780000</v>
+        <v>1333.78</v>
       </c>
       <c r="BV23" s="1">
-        <v>-703.570000</v>
+        <v>-703.57</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>22857.675656</v>
+        <v>22857.675655999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.349354</v>
+        <v>6.3493539999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1471.290000</v>
+        <v>1471.29</v>
       </c>
       <c r="CA23" s="1">
-        <v>-919.846000</v>
+        <v>-919.846</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>22870.430291</v>
+        <v>22870.430291000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.352897</v>
+        <v>6.3528969999999996</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.770000</v>
+        <v>1830.77</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1434.400000</v>
+        <v>-1434.4</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>22696.298829</v>
+        <v>22696.298828999999</v>
       </c>
       <c r="B24" s="1">
-        <v>6.304527</v>
+        <v>6.3045270000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>898.227000</v>
+        <v>898.22699999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.250000</v>
+        <v>-202.25</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>22706.425618</v>
+        <v>22706.425618000001</v>
       </c>
       <c r="G24" s="1">
-        <v>6.307340</v>
+        <v>6.3073399999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>916.258000</v>
+        <v>916.25800000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-170.941000</v>
+        <v>-170.941</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>22716.701236</v>
+        <v>22716.701236000001</v>
       </c>
       <c r="L24" s="1">
-        <v>6.310195</v>
+        <v>6.3101950000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>939.444000</v>
+        <v>939.44399999999996</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.729000</v>
+        <v>-120.729</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>22726.959494</v>
+        <v>22726.959493999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.313044</v>
+        <v>6.3130439999999997</v>
       </c>
       <c r="R24" s="1">
-        <v>946.019000</v>
+        <v>946.01900000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.137000</v>
+        <v>-104.137</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>22737.331363</v>
+        <v>22737.331363000001</v>
       </c>
       <c r="V24" s="1">
         <v>6.315925</v>
       </c>
       <c r="W24" s="1">
-        <v>952.507000</v>
+        <v>952.50699999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.786600</v>
+        <v>-88.786600000000007</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>22747.854493</v>
+        <v>22747.854492999999</v>
       </c>
       <c r="AA24" s="1">
         <v>6.318848</v>
       </c>
       <c r="AB24" s="1">
-        <v>959.420000</v>
+        <v>959.42</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.046700</v>
+        <v>-77.046700000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>22758.316076</v>
+        <v>22758.316075999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.321754</v>
+        <v>6.3217540000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.103000</v>
+        <v>964.10299999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.736700</v>
+        <v>-74.736699999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>22768.878878</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.324689</v>
+        <v>6.3246890000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>971.128000</v>
+        <v>971.12800000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.407700</v>
+        <v>-79.407700000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>22779.782928</v>
+        <v>22779.782928000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.327717</v>
+        <v>6.3277169999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>979.103000</v>
+        <v>979.10299999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.968800</v>
+        <v>-90.968800000000002</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>22791.282208</v>
+        <v>22791.282208000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.330912</v>
+        <v>6.3309119999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>988.802000</v>
+        <v>988.80200000000002</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.713000</v>
+        <v>-108.71299999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>22802.314194</v>
+        <v>22802.314193999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.333976</v>
+        <v>6.3339759999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>996.932000</v>
+        <v>996.93200000000002</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.440000</v>
+        <v>-124.44</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>22813.327363</v>
       </c>
       <c r="BE24" s="1">
-        <v>6.337035</v>
+        <v>6.3370350000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1035.270000</v>
+        <v>1035.27</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.108000</v>
+        <v>-197.108</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>22824.396581</v>
+        <v>22824.396581000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.340110</v>
+        <v>6.3401100000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1102.160000</v>
+        <v>1102.1600000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-315.117000</v>
+        <v>-315.11700000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>22836.200869</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.343389</v>
+        <v>6.3433890000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1211.320000</v>
+        <v>1211.32</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-500.573000</v>
+        <v>-500.57299999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>22847.265126</v>
+        <v>22847.265125999998</v>
       </c>
       <c r="BT24" s="1">
         <v>6.346463</v>
       </c>
       <c r="BU24" s="1">
-        <v>1333.840000</v>
+        <v>1333.84</v>
       </c>
       <c r="BV24" s="1">
-        <v>-703.480000</v>
+        <v>-703.48</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>22857.858184</v>
+        <v>22857.858184000001</v>
       </c>
       <c r="BY24" s="1">
         <v>6.349405</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1471.160000</v>
+        <v>1471.16</v>
       </c>
       <c r="CA24" s="1">
-        <v>-919.876000</v>
+        <v>-919.87599999999998</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>22870.950583</v>
+        <v>22870.950583000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.353042</v>
+        <v>6.3530420000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>1831.680000</v>
+        <v>1831.68</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1433.240000</v>
+        <v>-1433.24</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>22696.719903</v>
+        <v>22696.719903000001</v>
       </c>
       <c r="B25" s="1">
-        <v>6.304644</v>
+        <v>6.3046439999999997</v>
       </c>
       <c r="C25" s="1">
-        <v>898.381000</v>
+        <v>898.38099999999997</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.172000</v>
+        <v>-202.172</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>22706.840768</v>
+        <v>22706.840767999998</v>
       </c>
       <c r="G25" s="1">
-        <v>6.307456</v>
+        <v>6.3074560000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>916.353000</v>
+        <v>916.35299999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-170.808000</v>
+        <v>-170.80799999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>22716.991394</v>
+        <v>22716.991394000001</v>
       </c>
       <c r="L25" s="1">
-        <v>6.310275</v>
+        <v>6.3102749999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>939.356000</v>
+        <v>939.35599999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.752000</v>
+        <v>-120.752</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>22727.239269</v>
+        <v>22727.239269000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.313122</v>
+        <v>6.3131219999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>946.014000</v>
+        <v>946.01400000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.153000</v>
+        <v>-104.15300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>22737.674266</v>
+        <v>22737.674266000002</v>
       </c>
       <c r="V25" s="1">
-        <v>6.316021</v>
+        <v>6.3160210000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>952.417000</v>
+        <v>952.41700000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.817000</v>
+        <v>-88.816999999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>22748.206121</v>
+        <v>22748.206120999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.318946</v>
+        <v>6.3189460000000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>959.406000</v>
+        <v>959.40599999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.014300</v>
+        <v>-77.014300000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>22758.660828</v>
       </c>
       <c r="AF25" s="1">
-        <v>6.321850</v>
+        <v>6.3218500000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.093000</v>
+        <v>964.09299999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.710700</v>
+        <v>-74.710700000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>22769.569309</v>
+        <v>22769.569308999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.324880</v>
+        <v>6.3248800000000003</v>
       </c>
       <c r="AL25" s="1">
-        <v>971.139000</v>
+        <v>971.13900000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.376800</v>
+        <v>-79.376800000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>22780.508574</v>
+        <v>22780.508573999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.327919</v>
+        <v>6.3279189999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>979.090000</v>
+        <v>979.09</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.975300</v>
+        <v>-90.975300000000004</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>22791.676991</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.331021</v>
+        <v>6.3310209999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>988.796000</v>
+        <v>988.79600000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.741000</v>
+        <v>-108.741</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>22802.693634</v>
+        <v>22802.693633999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.334082</v>
+        <v>6.3340820000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>996.960000</v>
+        <v>996.96</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.454000</v>
+        <v>-124.45399999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>22813.688978</v>
+        <v>22813.688977999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.337136</v>
+        <v>6.3371360000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1035.300000</v>
+        <v>1035.3</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.113000</v>
+        <v>-197.113</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>22825.082548</v>
+        <v>22825.082547999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.340301</v>
+        <v>6.3403010000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1102.150000</v>
+        <v>1102.1500000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-315.113000</v>
+        <v>-315.113</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>22836.707284</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.343530</v>
+        <v>6.3435300000000003</v>
       </c>
       <c r="BP25" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-500.587000</v>
+        <v>-500.58699999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>22847.383670</v>
+        <v>22847.383669999999</v>
       </c>
       <c r="BT25" s="1">
         <v>6.346495</v>
       </c>
       <c r="BU25" s="1">
-        <v>1333.930000</v>
+        <v>1333.93</v>
       </c>
       <c r="BV25" s="1">
-        <v>-703.372000</v>
+        <v>-703.37199999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>22858.284248</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.349523</v>
+        <v>6.3495229999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1471.250000</v>
+        <v>1471.25</v>
       </c>
       <c r="CA25" s="1">
-        <v>-919.855000</v>
+        <v>-919.85500000000002</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>22871.467910</v>
+        <v>22871.467909999999</v>
       </c>
       <c r="CD25" s="1">
         <v>6.353186</v>
       </c>
       <c r="CE25" s="1">
-        <v>1831.100000</v>
+        <v>1831.1</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1433.870000</v>
+        <v>-1433.87</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>22696.993705</v>
+        <v>22696.993705000001</v>
       </c>
       <c r="B26" s="1">
-        <v>6.304720</v>
+        <v>6.3047199999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>898.381000</v>
+        <v>898.38099999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.275000</v>
+        <v>-202.27500000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>22707.121999</v>
+        <v>22707.121998999999</v>
       </c>
       <c r="G26" s="1">
-        <v>6.307534</v>
+        <v>6.3075340000000004</v>
       </c>
       <c r="H26" s="1">
-        <v>916.108000</v>
+        <v>916.10799999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.061000</v>
+        <v>-171.06100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>22717.336114</v>
+        <v>22717.336114000002</v>
       </c>
       <c r="L26" s="1">
         <v>6.310371</v>
       </c>
       <c r="M26" s="1">
-        <v>939.515000</v>
+        <v>939.51499999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.691000</v>
+        <v>-120.691</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>22727.586932</v>
+        <v>22727.586931999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.313219</v>
+        <v>6.3132190000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>946.042000</v>
+        <v>946.04200000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.089000</v>
+        <v>-104.089</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>22738.016311</v>
+        <v>22738.016310999999</v>
       </c>
       <c r="V26" s="1">
-        <v>6.316116</v>
+        <v>6.3161160000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>952.454000</v>
+        <v>952.45399999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.794600</v>
+        <v>-88.794600000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>22748.897545</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.319138</v>
+        <v>6.3191379999999997</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.529000</v>
+        <v>959.529</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.986000</v>
+        <v>-76.986000000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>22759.344780</v>
+        <v>22759.344779999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.322040</v>
+        <v>6.3220400000000003</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.107000</v>
+        <v>964.10699999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.707800</v>
+        <v>-74.707800000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>22769.926429</v>
+        <v>22769.926428999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.324980</v>
+        <v>6.32498</v>
       </c>
       <c r="AL26" s="1">
-        <v>971.137000</v>
+        <v>971.13699999999994</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.391900</v>
+        <v>-79.391900000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>22780.889502</v>
+        <v>22780.889502000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.328025</v>
+        <v>6.3280250000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>979.098000</v>
+        <v>979.09799999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.970600</v>
+        <v>-90.970600000000005</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>22792.038112</v>
+        <v>22792.038111999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.331122</v>
+        <v>6.3311219999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>988.806000</v>
+        <v>988.80600000000004</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.729000</v>
+        <v>-108.729</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>22803.357280</v>
+        <v>22803.35728</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.334266</v>
+        <v>6.3342660000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>996.938000</v>
+        <v>996.93799999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.454000</v>
+        <v>-124.45399999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>22814.357555</v>
+        <v>22814.357554999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.337322</v>
+        <v>6.3373220000000003</v>
       </c>
       <c r="BF26" s="1">
-        <v>1035.290000</v>
+        <v>1035.29</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.094000</v>
+        <v>-197.09399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>22825.554739</v>
+        <v>22825.554738999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.340432</v>
+        <v>6.3404319999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1102.170000</v>
+        <v>1102.17</v>
       </c>
       <c r="BL26" s="1">
-        <v>-315.100000</v>
+        <v>-315.10000000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>22837.126901</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.343646</v>
+        <v>6.3436459999999997</v>
       </c>
       <c r="BP26" s="1">
-        <v>1211.340000</v>
+        <v>1211.3399999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-500.570000</v>
+        <v>-500.57</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>22847.797831</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.346611</v>
+        <v>6.3466110000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1334.110000</v>
+        <v>1334.11</v>
       </c>
       <c r="BV26" s="1">
-        <v>-703.321000</v>
+        <v>-703.32100000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>22858.731175</v>
+        <v>22858.731175000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.349648</v>
+        <v>6.3496480000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1471.260000</v>
+        <v>1471.26</v>
       </c>
       <c r="CA26" s="1">
-        <v>-919.932000</v>
+        <v>-919.93200000000002</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>22872.021942</v>
+        <v>22872.021941999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.353339</v>
+        <v>6.3533390000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1830.480000</v>
+        <v>1830.48</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1434.180000</v>
+        <v>-1434.18</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>